--- a/data/long_razon/P31-Urba-long_razon.xlsx
+++ b/data/long_razon/P31-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 45,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 25,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 63,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,24; 47,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 4,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 61,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,17; -8,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,22; 82,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 59,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -8,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-35,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>109,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 204,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-55,85; -4,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,1; 220,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 37,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,62; 172,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 0,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 48,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,14; -1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,7; 67,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,18; -4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,88; 51,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,74; -7,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P31-Urba-long_razon.xlsx
+++ b/data/long_razon/P31-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.16225360826965</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.0016947160167578</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3625289400104628</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3464935330749198</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1403433140926195</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2157149823693365</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2520759349713232</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.07302569552787344</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2928610411379943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.05016148931319413</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1627334084320494</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5051555704661929</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1133293875886904</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2590510495928143</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3490133920561861</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.08158739681332676</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1738666597903643</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3976034762692526</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.4415323939598351</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2075164699951197</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.2057607066536495</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.6011743182670823</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.01100983372346669</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.06658130409419157</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4215911351907691</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.05316508188161504</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.1915832592035592</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2360788185818292</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.254112577096733</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.283165767959776</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4635353051230502</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1232509288796043</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.09478661285909996</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3389895719816643</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1919053384613832</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1944586216210882</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.03907197798750779</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3904267171031593</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4405081507420242</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.1737525417592707</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2631717664108708</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2601884548392078</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1374850370720256</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2922809577467959</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.305968040996038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.5960279885034664</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.08946896141510413</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.09300374506459672</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.7986875198027739</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.04747316961280526</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1098016234629455</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5869321031990296</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.07193672421511402</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.05550544395809925</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.8055012248639185</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3607371221877118</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4113321457509027</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.155919732805297</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.0120851175010459</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.3355392811452188</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.9608518094080087</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.2132613014174532</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.3766731634202124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.1088067378893447</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.571856697121646</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6880381319356798</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3839926537605508</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2913786313156232</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5613838776986951</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.4160379404041017</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4023069364069613</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5675643549634453</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.118926397016635</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.06779236153197317</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.02728087911121132</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.686207708951732</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.3923414173451172</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.05319746723485953</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.815102699964876</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.02897271361491976</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.1191203844894647</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.2494041318222837</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1535975077968539</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.3396961048148215</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4554262601885073</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1203070947639884</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.185918111269168</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3462278500852812</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1373567656012812</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.2672570834423411</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.07089953063502326</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2547189445316635</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4476843597817679</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3047501606275296</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.221780130544815</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.276732227162951</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2145606473306232</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2025153578678161</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3409619117854732</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.4393339115451277</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.03659405815363174</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.216049835192603</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6806228543527298</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.01970640508554426</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.0566796112844016</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4961925782397869</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.05832427362712191</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.1865700131637273</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
